--- a/LIScribe_Diario.xlsx
+++ b/LIScribe_Diario.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>Correzione errore nella WBS</t>
+  </si>
+  <si>
+    <t>Creazione repository GitHub</t>
+  </si>
+  <si>
+    <t>Creazione repository</t>
+  </si>
+  <si>
+    <t>Gestione file</t>
+  </si>
+  <si>
+    <t>Codice altervista ancora da caricare</t>
   </si>
 </sst>
 </file>
@@ -219,7 +231,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F6" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F7" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="6">
     <tableColumn name="Data" id="1"/>
     <tableColumn name="Attività svolte" id="2"/>
@@ -570,6 +582,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>46062.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
